--- a/medicine/Psychotrope/Eau_bénite_(bière)/Eau_bénite_(bière).xlsx
+++ b/medicine/Psychotrope/Eau_bénite_(bière)/Eau_bénite_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eau_b%C3%A9nite_(bi%C3%A8re)</t>
+          <t>Eau_bénite_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Eau Bénite est une bière brassée depuis 1996 par Unibroue à Chambly, au Québec.
 Cette bière triple  (avec une refermentation en bouteille) est de type Abbaye, elle a une couleur blond doré, un peu trouble. Elle est vendue en bouteille de 341 mL, avec bouchon en métal à décapsuler, et en bouteille de 75 cL avec bouchon de liège.
-Le nom provient du chanteur Robert Charlebois qui fut actionnaire de Unibroue[1]. Celui-ci ayant offert une de ces précédentes bières ("La fin du monde") à deux bonne sœurs, l'une d'elles aurait dit "C'est meilleur que de l'eau bénite"[2].
+Le nom provient du chanteur Robert Charlebois qui fut actionnaire de Unibroue. Celui-ci ayant offert une de ces précédentes bières ("La fin du monde") à deux bonne sœurs, l'une d'elles aurait dit "C'est meilleur que de l'eau bénite".
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eau_b%C3%A9nite_(bi%C3%A8re)</t>
+          <t>Eau_bénite_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étiquette</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Que diable faisais-tu
